--- a/data/controles_results/difmedias_controles_staggered_variables_2011.xlsx
+++ b/data/controles_results/difmedias_controles_staggered_variables_2011.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="112" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="126" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -39,13 +39,16 @@
     <t>cantidad_ara</t>
   </si>
   <si>
-    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab dummy_jb dummy_d1 dummy_ara cantidad_jb cantidad_d1 cantidad_ara , groupvar(dummy_oxxo) control(0) savexlsx(difmedias_controles_staggered_variables_2011) replace] </t>
+    <t>ingreso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the table includes missing values (.n, .o, .v etc.) see the Missing values section in the help file for the Stata command iebaltab for definitions of these values. Significance: ***=.01, **=.05, *=.1. Full user input as written by user: [iebaltab dummy_jb dummy_d1 dummy_ara cantidad_jb cantidad_d1 cantidad_ara ingreso , groupvar(dummy_oxxo) control(0) savexlsx(difmedias_controles_staggered_variables_2011) replace] </t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>904</t>
+    <t>880</t>
   </si>
   <si>
     <t xml:space="preserve"> (1) </t>
@@ -63,6 +66,12 @@
     <t>(0.000)</t>
   </si>
   <si>
+    <t>2.277</t>
+  </si>
+  <si>
+    <t>(0.044)</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -72,9 +81,18 @@
     <t>1</t>
   </si>
   <si>
+    <t>3.102</t>
+  </si>
+  <si>
+    <t>(0.103)</t>
+  </si>
+  <si>
     <t>.n</t>
   </si>
   <si>
+    <t>896</t>
+  </si>
+  <si>
     <t>(2)-(1)</t>
   </si>
   <si>
@@ -82,6 +100,9 @@
   </si>
   <si>
     <t>Mean difference</t>
+  </si>
+  <si>
+    <t>0.825**</t>
   </si>
 </sst>
 </file>
@@ -125,7 +146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -139,19 +160,19 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -162,19 +183,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -182,22 +203,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -205,22 +226,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
@@ -231,13 +252,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
@@ -251,22 +272,22 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -277,13 +298,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -297,22 +318,22 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -323,13 +344,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
@@ -343,22 +364,22 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -369,13 +390,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
@@ -389,22 +410,22 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -415,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -435,22 +456,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
@@ -461,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -481,21 +502,67 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
         <v>0</v>
       </c>
     </row>
